--- a/temp_exports/data_summary_KOTA_YOGYAKARTA_2025.xlsx
+++ b/temp_exports/data_summary_KOTA_YOGYAKARTA_2025.xlsx
@@ -424,13 +424,13 @@
     <t>11.088</t>
   </si>
   <si>
-    <t>11.678</t>
+    <t>11.078</t>
   </si>
   <si>
     <t>9.438</t>
   </si>
   <si>
-    <t>1.400</t>
+    <t>2.000</t>
   </si>
   <si>
     <t>1.650</t>
@@ -439,7 +439,7 @@
     <t>750</t>
   </si>
   <si>
-    <t>650</t>
+    <t>1.250</t>
   </si>
   <si>
     <t>900</t>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="K32">
         <v>300</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>120</v>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K44">
         <v>50</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O44">
         <v>250</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AE44">
         <v>250</v>
